--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб6_Пузынин_Д.А..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб6_Пузынин_Д.А..xlsx
@@ -1,31 +1,196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\git\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Дима\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB8750A-1623-48C8-AB5D-09BB9A7E7860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="7815" yWindow="825" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Подбор параметра" sheetId="1" r:id="rId1"/>
+    <sheet name="Книжные полки" sheetId="2" r:id="rId2"/>
+    <sheet name="Сорта чая" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Книжные полки'!$B$2:$B$3</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Книжные полки'!$B$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Сорта чая'!$B$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Книжные полки'!$B$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Сорта чая'!$C$6</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Книжные полки'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Сорта чая'!$D$6</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">160</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">3200</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">1700</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">2900</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="X">'Книжные полки'!$B$2</definedName>
+    <definedName name="Y">'Книжные полки'!$B$3</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Ставка</t>
+  </si>
+  <si>
+    <t>Сумма вклада</t>
+  </si>
+  <si>
+    <t>Конечная сумма</t>
+  </si>
+  <si>
+    <t>Размер ссуды</t>
+  </si>
+  <si>
+    <t>Отчисления по первому взносу</t>
+  </si>
+  <si>
+    <t>Первый взнос</t>
+  </si>
+  <si>
+    <t>Сумма для покупки</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Переменные</t>
+  </si>
+  <si>
+    <t>Изделие A</t>
+  </si>
+  <si>
+    <t>Изделие B</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Время изготовления</t>
+  </si>
+  <si>
+    <t>Ингридиенты</t>
+  </si>
+  <si>
+    <t>Объем запасов, т</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Индийский чай</t>
+  </si>
+  <si>
+    <t>Грузинский чай</t>
+  </si>
+  <si>
+    <t>Краснодарский чай</t>
+  </si>
+  <si>
+    <t>Прибыль от
+ реализации 1т
+ продукции, руб.</t>
+  </si>
+  <si>
+    <t>Норма расхода, т/т</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,10 +202,93 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,11 +297,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +597,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>956.93779904306234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>(1+B1)*B2</f>
+        <v>1000.0000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>250000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>A7*B7</f>
+        <v>50000</v>
+      </c>
+      <c r="D7" s="1">
+        <f>A7-C7</f>
+        <v>200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAB3DD2-31E9-4E3B-9290-487DE386932D}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>299.99999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>200.00000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <f>2*X+4*Y</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <f>3*X+4*Y</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <f>0.2*X+0.5*Y</f>
+        <v>160.00000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85534CA-2514-4A86-AE3C-C037C36AD590}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3200</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2900</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб6_Пузынин_Д.А..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб6_Пузынин_Д.А..xlsx
@@ -8,64 +8,145 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\git\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB8750A-1623-48C8-AB5D-09BB9A7E7860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3D9EE0-3C05-4961-ACF9-C16468F6A415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7815" yWindow="825" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Подбор параметра" sheetId="1" r:id="rId1"/>
     <sheet name="Книжные полки" sheetId="2" r:id="rId2"/>
     <sheet name="Сорта чая" sheetId="3" r:id="rId3"/>
+    <sheet name="Структура производства" sheetId="4" r:id="rId4"/>
+    <sheet name="Транспортная задача" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Книжные полки'!$B$2:$B$3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Сорта чая'!$B$8:$B$9</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Структура производства'!$B$9:$B$10</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Книжные полки'!$B$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Сорта чая'!$B$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Сорта чая'!$B$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Структура производства'!$B$10</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Книжные полки'!$B$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Сорта чая'!$C$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Сорта чая'!$B$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Структура производства'!$B$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Книжные полки'!$B$2</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Сорта чая'!$B$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Структура производства'!$B$18</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Книжные полки'!$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Структура производства'!$B$9</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Структура производства'!$B$9</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Структура производства'!$C$18</definedName>
+    <definedName name="solver_lhs7" localSheetId="3" hidden="1">'Структура производства'!$D$18</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">7</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Книжные полки'!$B$6</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'Сорта чая'!$D$6</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Сорта чая'!$B$11</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Структура производства'!$C$11</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">160</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">3200</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">1700</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">2900</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">200</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">600</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">2000</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">870</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">350</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">430</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">160</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">1000</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">120</definedName>
+    <definedName name="solver_rhs7" localSheetId="3" hidden="1">150</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="X">'Книжные полки'!$B$2</definedName>
+    <definedName name="Xtea">'Сорта чая'!$B$8</definedName>
     <definedName name="Y">'Книжные полки'!$B$3</definedName>
+    <definedName name="Ytea">'Сорта чая'!$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Ставка</t>
   </si>
@@ -162,13 +243,82 @@
   </si>
   <si>
     <t>Норма расхода, т/т</t>
+  </si>
+  <si>
+    <t>Изделие А</t>
+  </si>
+  <si>
+    <t>Изделие Б</t>
+  </si>
+  <si>
+    <t>Функция</t>
+  </si>
+  <si>
+    <t>Тип инструмента</t>
+  </si>
+  <si>
+    <t>Время обработки, ч</t>
+  </si>
+  <si>
+    <t>Прибыль от продажи 1 инстр., руб</t>
+  </si>
+  <si>
+    <t>Станок 1</t>
+  </si>
+  <si>
+    <t>Станок 2</t>
+  </si>
+  <si>
+    <t>Станок 3</t>
+  </si>
+  <si>
+    <t>Полное время работы в неделю, ч</t>
+  </si>
+  <si>
+    <t>Количество, шт</t>
+  </si>
+  <si>
+    <t>Прибыль, руб</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Завод</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Потребитель</t>
+  </si>
+  <si>
+    <t>Стоимость транспортировки, руб</t>
+  </si>
+  <si>
+    <t>Объём произволства, тонн</t>
+  </si>
+  <si>
+    <t>Еженедельные потребности, тонн</t>
+  </si>
+  <si>
+    <t>Затраты на транспортировку, руб</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,9 +335,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -297,27 +470,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -680,7 +889,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,74 +898,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>299.99999999999994</v>
+      <c r="B2" s="1">
+        <v>533.33333333333303</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>200.00000000000006</v>
+      <c r="B3" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <f>2*X+4*Y</f>
-        <v>1400</v>
+        <v>1466.6666666666661</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <f>3*X+4*Y</f>
-        <v>1700</v>
+        <v>1999.9999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <f>0.2*X+0.5*Y</f>
-        <v>160.00000000000003</v>
+        <v>156.66666666666663</v>
       </c>
     </row>
   </sheetData>
+  <scenarios current="4" show="4">
+    <scenario name="Полки_1700" locked="1" count="2" user="Дмитрий Пузынин" comment="Автор: Дмитрий Пузынин , 05.12.2024_x000a_Автор изменений: Дмитрий Пузынин , 05.12.2024">
+      <inputCells r="B2" val="300"/>
+      <inputCells r="B3" val="200"/>
+    </scenario>
+    <scenario name="Полки_2000" locked="1" count="2" user="Дмитрий Пузынин" comment="Автор: Дмитрий Пузынин , 05.12.2024">
+      <inputCells r="B2" val="514,285714285714"/>
+      <inputCells r="B3" val="114,285714285714"/>
+    </scenario>
+    <scenario name="Время_200" locked="1" count="2" user="Дмитрий Пузынин" comment="Автор: Дмитрий Пузынин , 05.12.2024">
+      <inputCells r="B2" val="285,714285714285"/>
+      <inputCells r="B3" val="285,714285714286"/>
+    </scenario>
+    <scenario name="Изд.А_350" locked="1" count="2" user="Дмитрий Пузынин" comment="Автор: Дмитрий Пузынин , 05.12.2024">
+      <inputCells r="B2" val="350"/>
+      <inputCells r="B3" val="237,5"/>
+    </scenario>
+    <scenario name="Изд.В_100" locked="1" count="2" user="Дмитрий Пузынин" comment="Автор: Дмитрий Пузынин , 05.12.2024">
+      <inputCells r="B2" val="533,333333333333"/>
+      <inputCells r="B3" val="100"/>
+    </scenario>
+  </scenarios>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85534CA-2514-4A86-AE3C-C037C36AD590}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,80 +1001,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>0.5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.2</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>0.2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>0.6</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>0.3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>0.2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>3200</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>2900</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>599.99999999999977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B6*(SUM(B3:B5))*Xtea+C6*(SUM(C3:C5))*Ytea</f>
+        <v>5544999.9999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <f>B3*Xtea+C3*Ytea</f>
+        <v>549.99999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <f>B4*Xtea+C4*Ytea</f>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>B5*Xtea+C5*Ytea</f>
+        <v>429.99999999999989</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -850,4 +1135,527 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DBE3E-6882-401D-96D8-6A01FAD03419}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E3" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E4" s="18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1">
+        <v>120</v>
+      </c>
+      <c r="D5" s="1">
+        <v>150</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="18">
+        <f>B9*E3</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="18">
+        <f>B10*E4</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="18">
+        <f>SUM(C9:C10)</f>
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <f>B9*B3</f>
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <f>B9*C3</f>
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B9*D3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B10*B4</f>
+        <v>120</v>
+      </c>
+      <c r="C17" s="1">
+        <f>B10*C4</f>
+        <v>80</v>
+      </c>
+      <c r="D17" s="1">
+        <f>B10*D4</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1">
+        <f ca="1">SUM(B17:B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f>SUM(C16:C17)</f>
+        <v>120</v>
+      </c>
+      <c r="D18" s="1">
+        <f>SUM(D16:D17)</f>
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E5FDA7-1A0E-4EAF-9F41-608DB01931D4}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>18000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>35000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>28000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
+        <v>900</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="1">
+        <v>850</v>
+      </c>
+      <c r="E9" s="1">
+        <v>700</v>
+      </c>
+      <c r="F9" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=userCustomization/customUI.xml><?xml version="1.0" encoding="utf-8"?>
+<mso:customUI xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui">
+  <mso:ribbon>
+    <mso:qat>
+      <mso:documentControls>
+        <mso:control idQ="mso:ScenarioGallery" visible="true"/>
+      </mso:documentControls>
+    </mso:qat>
+  </mso:ribbon>
+</mso:customUI>
 </file>
--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб6_Пузынин_Д.А..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб6_Пузынин_Д.А..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\git\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Дима\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\Desktop\VSCode\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3D9EE0-3C05-4961-ACF9-C16468F6A415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE5D82F-25BD-4968-9813-3105F92ED495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="0" windowWidth="21585" windowHeight="11295" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Подбор параметра" sheetId="1" r:id="rId1"/>
@@ -18,131 +18,231 @@
     <sheet name="Сорта чая" sheetId="3" r:id="rId3"/>
     <sheet name="Структура производства" sheetId="4" r:id="rId4"/>
     <sheet name="Транспортная задача" sheetId="5" r:id="rId5"/>
+    <sheet name="Состав смеси" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Книжные полки'!$B$2:$B$3</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Сорта чая'!$B$8:$B$9</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Состав смеси'!$B$13:$B$15</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Структура производства'!$B$9:$B$10</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Транспортная задача'!$B$15:$F$18</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Книжные полки'!$B$10</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Сорта чая'!$B$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Состав смеси'!$B$13:$B$15</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Структура производства'!$B$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Транспортная задача'!$B$15:$F$18</definedName>
+    <definedName name="solver_lhs10" localSheetId="4" hidden="1">'Транспортная задача'!$G$17</definedName>
+    <definedName name="solver_lhs11" localSheetId="4" hidden="1">'Транспортная задача'!$G$18</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Книжные полки'!$B$9</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Сорта чая'!$B$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Состав смеси'!$B$23</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Структура производства'!$B$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Транспортная задача'!$B$15:$F$18</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Книжные полки'!$B$2</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Сорта чая'!$B$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Состав смеси'!$C$23</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Структура производства'!$B$18</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Транспортная задача'!$B$19</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Книжные полки'!$B$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Состав смеси'!$D$23</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Структура производства'!$B$9</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Транспортная задача'!$C$19</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Структура производства'!$B$9</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'Транспортная задача'!$D$19</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Структура производства'!$C$18</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'Транспортная задача'!$E$19</definedName>
     <definedName name="solver_lhs7" localSheetId="3" hidden="1">'Структура производства'!$D$18</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">'Транспортная задача'!$F$19</definedName>
+    <definedName name="solver_lhs8" localSheetId="4" hidden="1">'Транспортная задача'!$G$15</definedName>
+    <definedName name="solver_lhs9" localSheetId="4" hidden="1">'Транспортная задача'!$G$16</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">11</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Книжные полки'!$B$6</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Сорта чая'!$B$11</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Состав смеси'!$D$16</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Структура производства'!$C$11</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Транспортная задача'!$F$31</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel10" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel8" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">200</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">600</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">"целое"</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs10" localSheetId="4" hidden="1">'Транспортная задача'!$G$6</definedName>
+    <definedName name="solver_rhs11" localSheetId="4" hidden="1">'Транспортная задача'!$G$7</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">2000</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">870</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Состав смеси'!$B$7</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">350</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">430</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">'Состав смеси'!$C$7</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">160</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Транспортная задача'!$B$9</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">'Состав смеси'!$D$7</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">"целое"</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'Транспортная задача'!$C$9</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">1000</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">'Транспортная задача'!$D$9</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">120</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">'Транспортная задача'!$E$9</definedName>
     <definedName name="solver_rhs7" localSheetId="3" hidden="1">150</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">'Транспортная задача'!$F$9</definedName>
+    <definedName name="solver_rhs8" localSheetId="4" hidden="1">'Транспортная задача'!$G$4</definedName>
+    <definedName name="solver_rhs9" localSheetId="4" hidden="1">'Транспортная задача'!$G$5</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="X">'Книжные полки'!$B$2</definedName>
     <definedName name="Xtea">'Сорта чая'!$B$8</definedName>
     <definedName name="Y">'Книжные полки'!$B$3</definedName>
@@ -160,8 +260,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -169,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>Ставка</t>
   </si>
@@ -309,6 +407,60 @@
   </si>
   <si>
     <t>Затраты на транспортировку, руб</t>
+  </si>
+  <si>
+    <t>План перевозок, шт</t>
+  </si>
+  <si>
+    <t>Общие затраты</t>
+  </si>
+  <si>
+    <t>Сеноо</t>
+  </si>
+  <si>
+    <t>Силос</t>
+  </si>
+  <si>
+    <t>Концентат</t>
+  </si>
+  <si>
+    <t>Белок</t>
+  </si>
+  <si>
+    <t>Кальций</t>
+  </si>
+  <si>
+    <t>Витамины</t>
+  </si>
+  <si>
+    <t>Содержание питательных веществ в 1 кг продукта, г</t>
+  </si>
+  <si>
+    <t>Сено</t>
+  </si>
+  <si>
+    <t>Стоимость 1 кг, руб</t>
+  </si>
+  <si>
+    <t>Потребность, г</t>
+  </si>
+  <si>
+    <t>Количество в смеси, кг</t>
+  </si>
+  <si>
+    <t>Доля в смеси, %</t>
+  </si>
+  <si>
+    <t>Стоимость, руб</t>
+  </si>
+  <si>
+    <t>Концетрат</t>
+  </si>
+  <si>
+    <t>Содержание питательных веществ в смеси, г</t>
+  </si>
+  <si>
+    <t>Концентрат</t>
   </si>
 </sst>
 </file>
@@ -316,14 +468,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,7 +535,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -466,65 +626,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -898,7 +1095,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1"/>
@@ -920,7 +1117,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1"/>
@@ -935,7 +1132,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1"/>
@@ -1001,26 +1198,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1077,7 +1274,7 @@
       <c r="D6" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1">
@@ -1085,10 +1282,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>1250</v>
       </c>
     </row>
@@ -1142,7 +1339,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,33 +1352,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
@@ -1193,12 +1390,12 @@
       <c r="D3" s="1">
         <v>0.06</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1">
@@ -1210,12 +1407,12 @@
       <c r="D4" s="1">
         <v>0.02</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="14">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="1">
@@ -1230,89 +1427,89 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>1000</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <f>B9*E3</f>
         <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>4000</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="14">
         <f>B10*E4</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="14">
         <f>SUM(C9:C10)</f>
         <v>1100000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1">
@@ -1329,7 +1526,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1">
@@ -1346,12 +1543,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="1">
-        <f ca="1">SUM(B17:B18)</f>
-        <v>0</v>
+        <f>SUM(B16:B17)</f>
+        <v>140</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C16:C17)</f>
@@ -1369,27 +1566,27 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E5FDA7-1A0E-4EAF-9F41-608DB01931D4}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="29"/>
@@ -1397,44 +1594,44 @@
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="16"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -1457,7 +1654,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -1480,7 +1677,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="16">
         <v>3</v>
       </c>
       <c r="B6" s="1">
@@ -1503,7 +1700,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
       <c r="B7" s="1">
@@ -1526,7 +1723,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="1">
@@ -1546,103 +1743,643 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>45</v>
+      <c r="A12" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="27" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="19"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="16">
         <v>1</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="1">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>595</v>
+      </c>
+      <c r="D15" s="1">
+        <v>309</v>
+      </c>
+      <c r="E15" s="1">
+        <v>169</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f>SUM(B15:F15)</f>
+        <v>1099</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="16">
         <v>2</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="1">
+        <v>463</v>
+      </c>
+      <c r="C16" s="1">
+        <v>293</v>
+      </c>
+      <c r="D16" s="1">
+        <v>241</v>
+      </c>
+      <c r="E16" s="1">
+        <v>202</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G18" si="0">SUM(B16:F16)</f>
+        <v>1199</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="16">
         <v>3</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="1">
+        <v>410</v>
+      </c>
+      <c r="C17" s="1">
+        <v>312</v>
+      </c>
+      <c r="D17" s="1">
+        <v>259</v>
+      </c>
+      <c r="E17" s="1">
+        <v>221</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>1202</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="16">
         <v>4</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1">
+        <v>108</v>
+      </c>
+      <c r="F18" s="1">
+        <v>650</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B15:B18)</f>
+        <v>900</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:F19" si="1">SUM(C15:C18)</f>
+        <v>1200</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <f>B15*B4</f>
+        <v>260000</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27:F27" si="2">C15*C4</f>
+        <v>11900000</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>5562000</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>4225000</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ref="B28:F28" si="3">B16*B5</f>
+        <v>2778000</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="3"/>
+        <v>2930000</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>2651000</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="3"/>
+        <v>808000</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:F29" si="4">B17*B6</f>
+        <v>3280000</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="4"/>
+        <v>3744000</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="4"/>
+        <v>5180000</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="4"/>
+        <v>2873000</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:F30" si="5">B18*B7</f>
+        <v>15000</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="5"/>
+        <v>1640000</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="5"/>
+        <v>4860000</v>
+      </c>
+      <c r="F30" s="31">
+        <f t="shared" si="5"/>
+        <v>6500000</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <f>SUM(B27:B30)</f>
+        <v>6333000</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:F31" si="6">SUM(C27:C30)</f>
+        <v>18574000</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="6"/>
+        <v>15033000</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="6"/>
+        <v>12766000</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="6"/>
+        <v>6500000</v>
+      </c>
+      <c r="G31" s="1">
+        <f>SUM(B31:F31)</f>
+        <v>59206000</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F0FCB-0BA0-4F4A-A7F2-A4816E8DDF17}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1">
+        <v>180</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="32">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="32">
+        <v>210</v>
+      </c>
+      <c r="D7" s="32">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <f>B13*100/$B$16</f>
+        <v>19.35483870967742</v>
+      </c>
+      <c r="D13" s="1">
+        <f>B13*E3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C15" si="0">B14*100/$B$16</f>
+        <v>80.645161290322577</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ref="D14:D15" si="1">B14*E4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
+        <f>SUM(B13:B15)</f>
+        <v>31</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUM(C13:C15)</f>
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(D13:D15)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$B13*B3</f>
+        <v>300</v>
+      </c>
+      <c r="C20" s="1">
+        <f>$B13*C3</f>
+        <v>60</v>
+      </c>
+      <c r="D20" s="1">
+        <f>$B13*D3</f>
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21:D22" si="2">$B14*B4</f>
+        <v>1750</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <f>$B15*D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
+        <f>SUM(B20:B22)</f>
+        <v>2050</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:D23" si="3">SUM(C20:C22)</f>
+        <v>210</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб6_Пузынин_Д.А..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб6_Пузынин_Д.А..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\Desktop\VSCode\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Дима\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\git\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE5D82F-25BD-4968-9813-3105F92ED495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B468218-6FA6-456D-9FA0-9B2B68CC6257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="0" windowWidth="21585" windowHeight="11295" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Подбор параметра" sheetId="1" r:id="rId1"/>
@@ -695,6 +695,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,11 +718,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,26 +1198,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1339,7 +1339,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,20 +1352,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
@@ -1487,17 +1487,17 @@
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1586,33 +1586,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="26"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="F3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="26"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
@@ -1743,31 +1743,31 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="12" t="s">
         <v>7</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="F14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="24" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1909,31 +1909,31 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="12" t="s">
         <v>7</v>
       </c>
@@ -2049,7 +2049,7 @@
         <f t="shared" si="5"/>
         <v>4860000</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="25">
         <f t="shared" si="5"/>
         <v>6500000</v>
       </c>
@@ -2088,16 +2088,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:F25"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2108,7 +2108,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,13 +2121,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       <c r="D2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -2199,13 +2199,13 @@
       <c r="A7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="26">
         <v>2000</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="26">
         <v>210</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="26">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
